--- a/MathDIY-datasets.xlsx
+++ b/MathDIY-datasets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1084">
   <si>
     <t>MathDIY</t>
   </si>
@@ -43950,6 +43950,184 @@
 With MathDIY we turn the previous doctrines upside down. Therefore we visualize the figures in separate files and add them to the folder attachments and show with templates how the principles of MathDIY should be used in practice.
 You may have noticed that everyone involved in a process try hard to work in a team, but thinks and acts as individuals. Then MathDIY comes into play.</t>
   </si>
+  <si>
+    <t>CO001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+  </si>
+  <si>
+    <t>Carbon dioxide equivalents</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">All values are expressed in carbon dioxide equivalents (CO2e). This is the same unit used by the UNFCCC and The European Commission. The different effects of different gases are converted into the corresponding amount of CO2 that would be required to produce the same greenhouse effect. You can compare a flight with a piece of meat or a T-Shirt with a glass of water or milk or replacement products (oat milk, fake meat) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>maybe compare things that make more sense, e.g. sugar and stevia, coal storage with alternative energy grid and so on, a short trip via train and a long trip via luxury cruise line.</t>
+    </r>
+  </si>
+  <si>
+    <t>［subtitle］［description］
+Source: UNFCCC; Recommended: oatly.com; Example given: Jens T. Hinrichs #MathDIY; latest update: Monday, July 26, Year 21 after Y2K, 5:53 pm</t>
+  </si>
+  <si>
+    <t>Y027</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>pbc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> ∈ Ig</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Investment of public benefit corporation (I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>pbc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>) is Element of Gross Investment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Public-benefit corporation is a term that has different meanings in different jurisdictions (e.g. Novel Food). In some cases it is the technical terminus used for a traditional nonprofit charity, non-governmental organization (NGO), or religious organization or indigenous organization. In other locations it is the term used for a newer form of for-profit corporation most frequently called a benefit corporation (or a B-corp), e.g. Zevia PBC that produces and invents Stevia plants, an sugar substitute. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Delimination: A public private partnership (PPP) would be the counterpart on the part of authorities and public corporations. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>The Enterprise consortium (E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>) – more rarely also syndicate – should be mentioned on the part of pure profit and profit-oriented companies. In no way, the references to named companies and organizations or unaudited products like Stevia, Oak Milk and so on used as given examples on MathDIY are not to be understood or considered as influencer advertising.</t>
+    </r>
+  </si>
+  <si>
+    <t>［subtitle］［description］
+Source: Wikipedia, the free encyclopedia; https://en.wikipedia.org/wiki/Public-benefit_corporation; Recommended: zevia.com; Example/delimination given: Jens T. Hinrichs #MathDIY; latest update: Wednesday, July 28, Year 21 after Y2K, 6:05 pm</t>
+  </si>
 </sst>
 </file>
 
@@ -43958,7 +44136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -44045,6 +44223,11 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -45295,7 +45478,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -50650,6 +50833,46 @@
       </c>
       <c r="F267" t="s" s="10">
         <v>1042</v>
+      </c>
+    </row>
+    <row r="268" ht="158.7" customHeight="1">
+      <c r="A268" t="s" s="9">
+        <v>1074</v>
+      </c>
+      <c r="B268" t="s" s="10">
+        <v>1075</v>
+      </c>
+      <c r="C268" t="s" s="10">
+        <v>1076</v>
+      </c>
+      <c r="D268" t="s" s="10">
+        <v>1077</v>
+      </c>
+      <c r="E268" t="s" s="10">
+        <v>1078</v>
+      </c>
+      <c r="F268" t="s" s="10">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="269" ht="266.7" customHeight="1">
+      <c r="A269" t="s" s="9">
+        <v>1079</v>
+      </c>
+      <c r="B269" t="s" s="10">
+        <v>1080</v>
+      </c>
+      <c r="C269" t="s" s="10">
+        <v>1081</v>
+      </c>
+      <c r="D269" t="s" s="10">
+        <v>1082</v>
+      </c>
+      <c r="E269" t="s" s="10">
+        <v>1083</v>
+      </c>
+      <c r="F269" t="s" s="10">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -50910,6 +51133,7 @@
     <hyperlink ref="E253" r:id="rId251" location="" tooltip="" display="Heading: MathDIY fundamentals, subheading: The Origin of Species  - the human as an economic (f)actor. Repository: MathDIY on GitHub. File .sociology in Folder: fundamentals. Language: EN. Format: PDF|CSV|TSV. &#10;Note: The Interaction Theory briefly mentioned – The Origin of Species in the Internet Age and beyond by Jens T. Hinrichs expressed about [subtitle] written as [notation] reflect other science-disciplines by questioning their arguments and by taking into account literal considerations.&#10;More information can be obtained via MathDIY visualized in pictures on Github: https://github.com/scifiltr/MathDIY/tree/master/attachments (latest update: 02-14-2020, 6:19 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Fragilus (Immutabilis ⎮ Libertate) in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)"/>
     <hyperlink ref="E254" r:id="rId252" location="" tooltip="" display="Heading: MathDIY fundamentals, subheading: The Origin of Species  - the human as an economic (f)actor. Repository: MathDIY on GitHub. File .sociology in Folder: fundamentals. Language: EN. Format: PDF|CSV|TSV. &#10;Note: The Interaction Theory briefly mentioned – The Origin of Species in the Internet Age and beyond by Jens T. Hinrichs expressed about [subtitle] written as [notation] reflect other science-disciplines by questioning their arguments and by taking into account literal considerations.&#10;More information can be obtained via MathDIY visualized in pictures on Github: https://github.com/scifiltr/MathDIY/tree/master/attachments (latest update: 02-14-2020, 6:19 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Suicidaris in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Stereotypus (Falsus ⎮ Maximus) in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)"/>
     <hyperlink ref="E255" r:id="rId253" location="" tooltip="" display="Heading: MathDIY fundamentals, subheading: The Origin of Species  - the human as an economic (f)actor. Repository: MathDIY on GitHub. File .sociology in Folder: fundamentals. Language: EN. Format: PDF|CSV|TSV. &#10;Note: The Interaction Theory briefly mentioned – The Origin of Species in the Internet Age and beyond by Jens T. Hinrichs expressed about [subtitle] written as [notation] reflect other science-disciplines by questioning their arguments and by taking into account literal considerations.&#10;More information can be obtained via MathDIY visualized in pictures on Github: https://github.com/scifiltr/MathDIY/tree/master/attachments (latest update: 02-14-2020, 6:19 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Suicidaris in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Stereotypus (Falsus ⎮ Maximus) in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)"/>
+    <hyperlink ref="D269" r:id="rId254" location="" tooltip="" display="benefit corporation"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/MathDIY-datasets.xlsx
+++ b/MathDIY-datasets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1089">
   <si>
     <t>MathDIY</t>
   </si>
@@ -44127,6 +44127,78 @@
   <si>
     <t>［subtitle］［description］
 Source: Wikipedia, the free encyclopedia; https://en.wikipedia.org/wiki/Public-benefit_corporation; Recommended: zevia.com; Example/delimination given: Jens T. Hinrichs #MathDIY; latest update: Wednesday, July 28, Year 21 after Y2K, 6:05 pm</t>
+  </si>
+  <si>
+    <t>IY001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">H = 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> D / T</t>
+    </r>
+  </si>
+  <si>
+    <t>Estimated hash rate (H) per second. A determinant of Yours (Y) in the Internet without Frontiers (IwF).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Methodology: The hashing power is estimated from the number of blocks being mined in the last 24h and the current block difficulty. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">More specifically, given the average time T between mined blocks and a difficulty D, the estimated hash rate per second H is given by the formula H = 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> D / T</t>
+    </r>
+  </si>
+  <si>
+    <t>Source: Blockchain.com; latest update: Tuesday, Nov 16, Year 21 after Y2K, 4:54 pm</t>
   </si>
 </sst>
 </file>
@@ -45478,7 +45550,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -50872,6 +50944,26 @@
         <v>1083</v>
       </c>
       <c r="F269" t="s" s="10">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="270" ht="86.7" customHeight="1">
+      <c r="A270" t="s" s="9">
+        <v>1084</v>
+      </c>
+      <c r="B270" t="s" s="10">
+        <v>1085</v>
+      </c>
+      <c r="C270" t="s" s="10">
+        <v>1086</v>
+      </c>
+      <c r="D270" t="s" s="10">
+        <v>1087</v>
+      </c>
+      <c r="E270" t="s" s="10">
+        <v>1088</v>
+      </c>
+      <c r="F270" t="s" s="10">
         <v>857</v>
       </c>
     </row>

--- a/MathDIY-datasets.xlsx
+++ b/MathDIY-datasets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1104">
   <si>
     <t>MathDIY</t>
   </si>
@@ -44199,6 +44199,429 @@
   </si>
   <si>
     <t>Source: Blockchain.com; latest update: Tuesday, Nov 16, Year 21 after Y2K, 4:54 pm</t>
+  </si>
+  <si>
+    <t>R051</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>CPI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> ÷ CPI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> = p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> ÷ p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculating the CPI for a single item</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">          market basket of desired JJJJ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">CPI = —————————————— x 100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">          market basket of base JJJJ 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">           p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> of item, given period (updated cost)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">CPI = ———————————————— x 100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">           p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> of item, initial period (base cost
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Excerpt retrieved from:
+en.wikipedia.org; 
+title id 1062042105, Consumer Price Index 
+This source was last edited on 25 Dec 2021, at 21:28 (UTC). 
+Source above is available under the 
+Creative Commons Attribution-ShareAlike License; additional terms may apply. By using this source, you agree to the Terms of Use and Privacy Policy. Wikipedia® is a registered trademark of the Wikimedia Foundation, Inc., a non-profit organization. </t>
+  </si>
+  <si>
+    <t>R052</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">           ∑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">CPI x weight
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>i=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">CPI = —————————         
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">           ∑</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> x weight
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>i=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculating the CPI for multiple items</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">         
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Many but not all price indices are weighted averages using weights that sum to 1 or 100. Also the terms do not necessarily sum to 1 or 100.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Many but not all price indices are weighted averages using weights that sum to 1 or 100. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Example: The prices of 85,000 items from 22,000 stores, and 35,000 rental units are added together and averaged. They are weighted this way: housing 41.4%; food and beverages 17.4%; transport 17.0%; medical care 6.9%; apparel 6.0%; entertainment 4.4%; other 6.9%. Taxes (43%) are not included in CPI computation.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Excerpt retrieved from:
+en.wikipedia.org; 
+title id 1062042105, Consumer Price Index 
+This source was last edited on 25 Dec 2021, at 21:28 (UTC). 
+Source above is available under the 
+Creative Commons Attribution-ShareAlike License; additional terms may apply. By using this source, you agree to the Terms of Use and Privacy Policy. Wikipedia® is a registered trademark of the Wikimedia Foundation, Inc., a non-profit organization. 
+</t>
+  </si>
+  <si>
+    <t>R053</t>
+  </si>
+  <si>
+    <t>HCPI</t>
+  </si>
+  <si>
+    <t>Harmonized Index of Consumer Prices (HICP)</t>
+  </si>
+  <si>
+    <t>By convention, weights are fractions or ratios summing to one, as percentages summing to 100 or as per mille numbers summing to 1000. 
+On the European Union's Harmonized Index of Consumer Prices (HICP), for example, each country computes some 80 prescribed sub-indices, their weighted average constituting the national HICP. The weights for these sub-indices will consist of the sum of the weights of a number of component lower level indices. The classification is according to use, developed in a national accounting context. This is not necessarily the kind of classification that is most appropriate for a consumer price index.</t>
+  </si>
+  <si>
+    <t>Excerpt retrieved from:
+en.wikipedia.org; 
+title id 1062042105, Consumer Price Index 
+This source was last edited on 25 Dec 2021, at 21:28 (UTC). 
+Source above is available under the 
+Creative Commons Attribution-ShareAlike License; additional terms may apply. By using this source, you agree to the Terms of Use and Privacy Policy. Wikipedia® is a registered trademark of the Wikimedia Foundation, Inc., a non-profit organization.</t>
   </si>
 </sst>
 </file>
@@ -45550,7 +45973,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F270"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -46167,7 +46590,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" ht="1325.35" customHeight="1">
+    <row r="31" ht="1115.7" customHeight="1">
       <c r="A31" t="s" s="9">
         <v>132</v>
       </c>
@@ -46187,7 +46610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" ht="751.6" customHeight="1">
+    <row r="32" ht="634.2" customHeight="1">
       <c r="A32" t="s" s="9">
         <v>137</v>
       </c>
@@ -50965,6 +51388,66 @@
       </c>
       <c r="F270" t="s" s="10">
         <v>857</v>
+      </c>
+    </row>
+    <row r="271" ht="146.7" customHeight="1">
+      <c r="A271" t="s" s="9">
+        <v>1089</v>
+      </c>
+      <c r="B271" t="s" s="10">
+        <v>1090</v>
+      </c>
+      <c r="C271" t="s" s="10">
+        <v>1091</v>
+      </c>
+      <c r="D271" t="s" s="10">
+        <v>1092</v>
+      </c>
+      <c r="E271" t="s" s="10">
+        <v>1093</v>
+      </c>
+      <c r="F271" t="s" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" ht="158.7" customHeight="1">
+      <c r="A272" t="s" s="9">
+        <v>1094</v>
+      </c>
+      <c r="B272" t="s" s="10">
+        <v>1095</v>
+      </c>
+      <c r="C272" t="s" s="10">
+        <v>1096</v>
+      </c>
+      <c r="D272" t="s" s="10">
+        <v>1097</v>
+      </c>
+      <c r="E272" t="s" s="10">
+        <v>1098</v>
+      </c>
+      <c r="F272" t="s" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" ht="170.7" customHeight="1">
+      <c r="A273" t="s" s="9">
+        <v>1099</v>
+      </c>
+      <c r="B273" t="s" s="10">
+        <v>1100</v>
+      </c>
+      <c r="C273" t="s" s="10">
+        <v>1101</v>
+      </c>
+      <c r="D273" t="s" s="10">
+        <v>1102</v>
+      </c>
+      <c r="E273" t="s" s="10">
+        <v>1103</v>
+      </c>
+      <c r="F273" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/MathDIY-datasets.xlsx
+++ b/MathDIY-datasets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1113">
   <si>
     <t>MathDIY</t>
   </si>
@@ -44012,6 +44012,163 @@
   <si>
     <t>［subtitle］［description］
 Source: UNFCCC; Recommended: oatly.com; Example given: Jens T. Hinrichs #MathDIY; latest update: Monday, July 26, Year 21 after Y2K, 5:53 pm</t>
+  </si>
+  <si>
+    <t>CO002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">GDP (Yield) x Growth Rate (i) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">= CO2 Budget (e) ./. Ground (G) +
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">GDP (Yield) x Euler Constant (ℇ) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">= CO2-Budget (e) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">./. (Nature (Consumption) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">./. Area (undev./developed) +
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">(Y)ours = Democracy + (Nature - Area) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">= Green Growth +(Y)ours </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> ./. (Y)ours</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 0 (Green Growth)</t>
+    </r>
+  </si>
+  <si>
+    <t>Green Growth</t>
+  </si>
+  <si>
+    <t>In view of the global group dynamics of the growing world population, the linchpin of the planetary future is decided with the decoupling of economic value creation (prosperity) taking into account the consumption of nature, generally known under the keyword Green Growth</t>
+  </si>
+  <si>
+    <t>［subtitle］［description］
+Source: Math DNA; 
+Recommended: github.com/scifiltr; 
+Explanation &amp; Formula given: Jens T. Hinrichs #MathDIY # Math DNA; 
+latest update: Sunday, January 16, 
+Year 22 after Y2K, 7:32 pm</t>
+  </si>
+  <si>
+    <t>CO003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fossil fuel (oil &amp; gas &amp; equal substitutes like coal) ++ sand, cement and natural building materials ++ pulp and paper ++ water consumption (includes pollution degree, microplastic, water treatment)
++ air production (fuel output, particulate matter) +————————————————————— += Nature by Consumption 1  +(cause indirectly – Damage is constantly being done) ++ undeveloped Area (including granted concessions, contamination) ++ developed Area (exploitation) += Nature by Consumption 2  +(caused directly – Damage once done cannot be undone) +————————————
+= Ground </t>
+  </si>
+  <si>
+    <t>Ground (G) according to Nature indexed with Consumption</t>
+  </si>
+  <si>
+    <t>subtitle］［description］
+Source: Math DNA; 
+Recommended: github.com/scifiltr; 
+Explanation &amp; Formula given: Jens T. Hinrichs #MathDIY # Math DNA; 
+latest update: Sunday, January 16, 
+Year 22 after Y2K, 7:32 pm</t>
   </si>
   <si>
     <t>Y027</t>
@@ -45973,7 +46130,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -51350,7 +51507,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="269" ht="266.7" customHeight="1">
+    <row r="269" ht="135.6" customHeight="1">
       <c r="A269" t="s" s="9">
         <v>1079</v>
       </c>
@@ -51370,7 +51527,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="270" ht="86.7" customHeight="1">
+    <row r="270" ht="206.7" customHeight="1">
       <c r="A270" t="s" s="9">
         <v>1084</v>
       </c>
@@ -51381,72 +51538,112 @@
         <v>1086</v>
       </c>
       <c r="D270" t="s" s="10">
+        <v>1082</v>
+      </c>
+      <c r="E270" t="s" s="10">
         <v>1087</v>
-      </c>
-      <c r="E270" t="s" s="10">
-        <v>1088</v>
       </c>
       <c r="F270" t="s" s="10">
         <v>857</v>
       </c>
     </row>
-    <row r="271" ht="146.7" customHeight="1">
+    <row r="271" ht="266.7" customHeight="1">
       <c r="A271" t="s" s="9">
+        <v>1088</v>
+      </c>
+      <c r="B271" t="s" s="10">
         <v>1089</v>
       </c>
-      <c r="B271" t="s" s="10">
+      <c r="C271" t="s" s="10">
         <v>1090</v>
       </c>
-      <c r="C271" t="s" s="10">
+      <c r="D271" t="s" s="10">
         <v>1091</v>
       </c>
-      <c r="D271" t="s" s="10">
+      <c r="E271" t="s" s="10">
         <v>1092</v>
       </c>
-      <c r="E271" t="s" s="10">
+      <c r="F271" t="s" s="10">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="272" ht="86.7" customHeight="1">
+      <c r="A272" t="s" s="9">
         <v>1093</v>
       </c>
-      <c r="F271" t="s" s="10">
+      <c r="B272" t="s" s="10">
+        <v>1094</v>
+      </c>
+      <c r="C272" t="s" s="10">
+        <v>1095</v>
+      </c>
+      <c r="D272" t="s" s="10">
+        <v>1096</v>
+      </c>
+      <c r="E272" t="s" s="10">
+        <v>1097</v>
+      </c>
+      <c r="F272" t="s" s="10">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="273" ht="146.7" customHeight="1">
+      <c r="A273" t="s" s="9">
+        <v>1098</v>
+      </c>
+      <c r="B273" t="s" s="10">
+        <v>1099</v>
+      </c>
+      <c r="C273" t="s" s="10">
+        <v>1100</v>
+      </c>
+      <c r="D273" t="s" s="10">
+        <v>1101</v>
+      </c>
+      <c r="E273" t="s" s="10">
+        <v>1102</v>
+      </c>
+      <c r="F273" t="s" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="272" ht="158.7" customHeight="1">
-      <c r="A272" t="s" s="9">
-        <v>1094</v>
-      </c>
-      <c r="B272" t="s" s="10">
-        <v>1095</v>
-      </c>
-      <c r="C272" t="s" s="10">
-        <v>1096</v>
-      </c>
-      <c r="D272" t="s" s="10">
-        <v>1097</v>
-      </c>
-      <c r="E272" t="s" s="10">
-        <v>1098</v>
-      </c>
-      <c r="F272" t="s" s="10">
+    <row r="274" ht="158.7" customHeight="1">
+      <c r="A274" t="s" s="9">
+        <v>1103</v>
+      </c>
+      <c r="B274" t="s" s="10">
+        <v>1104</v>
+      </c>
+      <c r="C274" t="s" s="10">
+        <v>1105</v>
+      </c>
+      <c r="D274" t="s" s="10">
+        <v>1106</v>
+      </c>
+      <c r="E274" t="s" s="10">
+        <v>1107</v>
+      </c>
+      <c r="F274" t="s" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="273" ht="170.7" customHeight="1">
-      <c r="A273" t="s" s="9">
-        <v>1099</v>
-      </c>
-      <c r="B273" t="s" s="10">
-        <v>1100</v>
-      </c>
-      <c r="C273" t="s" s="10">
-        <v>1101</v>
-      </c>
-      <c r="D273" t="s" s="10">
-        <v>1102</v>
-      </c>
-      <c r="E273" t="s" s="10">
-        <v>1103</v>
-      </c>
-      <c r="F273" t="s" s="10">
+    <row r="275" ht="170.7" customHeight="1">
+      <c r="A275" t="s" s="9">
+        <v>1108</v>
+      </c>
+      <c r="B275" t="s" s="10">
+        <v>1109</v>
+      </c>
+      <c r="C275" t="s" s="10">
+        <v>1110</v>
+      </c>
+      <c r="D275" t="s" s="10">
+        <v>1111</v>
+      </c>
+      <c r="E275" t="s" s="10">
+        <v>1112</v>
+      </c>
+      <c r="F275" t="s" s="10">
         <v>12</v>
       </c>
     </row>
@@ -51708,7 +51905,7 @@
     <hyperlink ref="E253" r:id="rId251" location="" tooltip="" display="Heading: MathDIY fundamentals, subheading: The Origin of Species  - the human as an economic (f)actor. Repository: MathDIY on GitHub. File .sociology in Folder: fundamentals. Language: EN. Format: PDF|CSV|TSV. &#10;Note: The Interaction Theory briefly mentioned – The Origin of Species in the Internet Age and beyond by Jens T. Hinrichs expressed about [subtitle] written as [notation] reflect other science-disciplines by questioning their arguments and by taking into account literal considerations.&#10;More information can be obtained via MathDIY visualized in pictures on Github: https://github.com/scifiltr/MathDIY/tree/master/attachments (latest update: 02-14-2020, 6:19 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Fragilus (Immutabilis ⎮ Libertate) in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)"/>
     <hyperlink ref="E254" r:id="rId252" location="" tooltip="" display="Heading: MathDIY fundamentals, subheading: The Origin of Species  - the human as an economic (f)actor. Repository: MathDIY on GitHub. File .sociology in Folder: fundamentals. Language: EN. Format: PDF|CSV|TSV. &#10;Note: The Interaction Theory briefly mentioned – The Origin of Species in the Internet Age and beyond by Jens T. Hinrichs expressed about [subtitle] written as [notation] reflect other science-disciplines by questioning their arguments and by taking into account literal considerations.&#10;More information can be obtained via MathDIY visualized in pictures on Github: https://github.com/scifiltr/MathDIY/tree/master/attachments (latest update: 02-14-2020, 6:19 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Suicidaris in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Stereotypus (Falsus ⎮ Maximus) in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)"/>
     <hyperlink ref="E255" r:id="rId253" location="" tooltip="" display="Heading: MathDIY fundamentals, subheading: The Origin of Species  - the human as an economic (f)actor. Repository: MathDIY on GitHub. File .sociology in Folder: fundamentals. Language: EN. Format: PDF|CSV|TSV. &#10;Note: The Interaction Theory briefly mentioned – The Origin of Species in the Internet Age and beyond by Jens T. Hinrichs expressed about [subtitle] written as [notation] reflect other science-disciplines by questioning their arguments and by taking into account literal considerations.&#10;More information can be obtained via MathDIY visualized in pictures on Github: https://github.com/scifiltr/MathDIY/tree/master/attachments (latest update: 02-14-2020, 6:19 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Suicidaris in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)&#10;&#10;AND&#10;&#10;Subheading: The Origin of Species  - the human as an economic (f)actor. Keyword: Homo Stereotypus (Falsus ⎮ Maximus) in repository ‘MathDIY'. Language: EN. Format: PDF.&#10;Source: MathDIY, Democracy and Internet are Yours. URL: https://github.com/scifiltr/MathDIY (latest update: 11-28-2019, 6:12 pm UTC)"/>
-    <hyperlink ref="D269" r:id="rId254" location="" tooltip="" display="benefit corporation"/>
+    <hyperlink ref="D271" r:id="rId254" location="" tooltip="" display="benefit corporation"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
